--- a/data/microservice-recruit/pf-user_structure.xlsx
+++ b/data/microservice-recruit/pf-user_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6960" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7032" uniqueCount="505">
   <si>
     <t>Class Name</t>
   </si>
@@ -1083,36 +1083,36 @@
     <t>userList</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>firstId</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>nickname</t>
+    <t>phone</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>firstId</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -1143,45 +1143,45 @@
     <t>time</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
     <t>log</t>
   </si>
   <si>
+    <t>redis</t>
+  </si>
+  <si>
     <t>clientService</t>
   </si>
   <si>
-    <t>redis</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
+    <t>userCenterClient</t>
+  </si>
+  <si>
     <t>projectInfo</t>
   </si>
   <si>
-    <t>userCenterClient</t>
-  </si>
-  <si>
     <t>skillList</t>
   </si>
   <si>
@@ -1197,10 +1197,16 @@
     <t>sendList</t>
   </si>
   <si>
+    <t>userInfoService</t>
+  </si>
+  <si>
     <t>messageClient</t>
   </si>
   <si>
-    <t>userInfoService</t>
+    <t>CODE_ERROR</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>UNKNOW_ERROR</t>
@@ -1209,27 +1215,21 @@
     <t>msg</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>NEED_LOGIN</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>SEND_NOTE_ERROR</t>
   </si>
   <si>
     <t>QINIU_ERROR</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>CODE_EXPIRE</t>
   </si>
   <si>
-    <t>CODE_ERROR</t>
-  </si>
-  <si>
     <t>intentionCompany</t>
   </si>
   <si>
@@ -1245,85 +1245,88 @@
     <t>avatar</t>
   </si>
   <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>endTime</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>updateTime</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>introduce</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
+    <t>UPDATE_PASSWORD</t>
+  </si>
+  <si>
+    <t>USER_AVATAR</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOTIFY</t>
+  </si>
+  <si>
     <t>LOOK</t>
   </si>
   <si>
+    <t>SENDINFO</t>
+  </si>
+  <si>
     <t>SPLIT</t>
   </si>
   <si>
+    <t>HANDLE_RESUME</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>RECEIVE_RESUME</t>
+  </si>
+  <si>
+    <t>JOINER</t>
+  </si>
+  <si>
+    <t>com.google.common.base.Joiner</t>
+  </si>
+  <si>
     <t>LOGOUT</t>
   </si>
   <si>
-    <t>JOINER</t>
-  </si>
-  <si>
-    <t>com.google.common.base.Joiner</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>SENDINFO</t>
+    <t>SEND_RESUME</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
   </si>
   <si>
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>USER_AVATAR</t>
-  </si>
-  <si>
-    <t>RECEIVE_RESUME</t>
-  </si>
-  <si>
-    <t>REGISTER</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>PICTURE</t>
-  </si>
-  <si>
-    <t>SEND_RESUME</t>
-  </si>
-  <si>
-    <t>NOTIFY</t>
-  </si>
-  <si>
-    <t>HANDLE_RESUME</t>
-  </si>
-  <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
-    <t>UPDATE_PASSWORD</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
+    <t>prefix</t>
   </si>
   <si>
     <t>charset</t>
@@ -1332,30 +1335,27 @@
     <t>java.nio.charset.Charset</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
     <t>company</t>
   </si>
   <si>
+    <t>USER_TOKEN</t>
+  </si>
+  <si>
+    <t>RESUME_SEND</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>RESUME_RECEIVE</t>
+  </si>
+  <si>
     <t>PHONE_CODE</t>
   </si>
   <si>
-    <t>RESUME_RECEIVE</t>
-  </si>
-  <si>
-    <t>USER_TOKEN</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>RESUME_SEND</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1500,6 +1500,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
@@ -1519,9 +1522,6 @@
   </si>
   <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>88</t>
@@ -12837,7 +12837,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C361"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12944,24 +12944,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
@@ -12969,10 +12969,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13">
@@ -12980,10 +12980,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14">
@@ -12991,10 +12991,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -13002,7 +13002,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>489</v>
@@ -13013,7 +13013,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>489</v>
@@ -13024,7 +13024,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>489</v>
@@ -13035,7 +13035,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>489</v>
@@ -13046,7 +13046,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>489</v>
@@ -13057,7 +13057,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>489</v>
@@ -13068,7 +13068,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>489</v>
@@ -13079,7 +13079,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>489</v>
@@ -13090,7 +13090,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>489</v>
@@ -13101,7 +13101,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>489</v>
@@ -13112,7 +13112,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>489</v>
@@ -13123,7 +13123,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>489</v>
@@ -13134,7 +13134,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>489</v>
@@ -13145,7 +13145,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>489</v>
@@ -13156,7 +13156,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>489</v>
@@ -13167,10 +13167,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31">
@@ -13178,7 +13178,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>489</v>
@@ -13189,10 +13189,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33">
@@ -13200,7 +13200,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>489</v>
@@ -13208,10 +13208,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>489</v>
@@ -13219,21 +13219,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>489</v>
@@ -13241,21 +13241,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>489</v>
@@ -13266,7 +13266,7 @@
         <v>58</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>489</v>
@@ -13277,7 +13277,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>489</v>
@@ -13288,7 +13288,7 @@
         <v>58</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>489</v>
@@ -13299,7 +13299,7 @@
         <v>58</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>489</v>
@@ -13310,7 +13310,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>489</v>
@@ -13321,7 +13321,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>489</v>
@@ -13332,7 +13332,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>489</v>
@@ -13343,7 +13343,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>489</v>
@@ -13354,7 +13354,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>489</v>
@@ -13365,7 +13365,7 @@
         <v>58</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>489</v>
@@ -13376,7 +13376,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>489</v>
@@ -13387,7 +13387,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>489</v>
@@ -13398,7 +13398,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>489</v>
@@ -13409,10 +13409,10 @@
         <v>58</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53">
@@ -13420,7 +13420,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>489</v>
@@ -13431,10 +13431,10 @@
         <v>58</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55">
@@ -13442,7 +13442,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>489</v>
@@ -13450,10 +13450,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>489</v>
@@ -13461,21 +13461,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>489</v>
@@ -13483,21 +13483,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>489</v>
@@ -13505,43 +13505,43 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>489</v>
@@ -13549,10 +13549,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>489</v>
@@ -13560,10 +13560,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>489</v>
@@ -13571,10 +13571,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>489</v>
@@ -13582,10 +13582,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>489</v>
@@ -13593,21 +13593,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>489</v>
@@ -13615,21 +13615,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>489</v>
@@ -13637,21 +13637,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>489</v>
@@ -13659,32 +13659,32 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>489</v>
@@ -13692,13 +13692,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>467</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79">
@@ -13706,7 +13706,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>489</v>
@@ -13714,10 +13714,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>489</v>
@@ -13725,10 +13725,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>489</v>
@@ -13736,10 +13736,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>489</v>
@@ -13747,10 +13747,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>489</v>
@@ -13758,21 +13758,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>489</v>
@@ -13780,32 +13780,32 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>489</v>
@@ -13813,21 +13813,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>489</v>
@@ -13835,32 +13835,32 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>489</v>
@@ -13868,10 +13868,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>489</v>
@@ -13879,10 +13879,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>489</v>
@@ -13890,10 +13890,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>489</v>
@@ -13901,21 +13901,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>489</v>
@@ -13923,21 +13923,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>489</v>
@@ -13945,54 +13945,54 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>489</v>
@@ -14000,10 +14000,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>489</v>
@@ -14011,10 +14011,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>489</v>
@@ -14022,10 +14022,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>489</v>
@@ -14033,10 +14033,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>489</v>
@@ -14044,21 +14044,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>489</v>
@@ -14066,21 +14066,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>489</v>
@@ -14088,32 +14088,32 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>489</v>
@@ -14121,10 +14121,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>489</v>
@@ -14132,131 +14132,131 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>453</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>489</v>
@@ -14264,21 +14264,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>489</v>
@@ -14286,54 +14286,54 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>489</v>
@@ -14341,10 +14341,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>489</v>
@@ -14352,54 +14352,54 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>453</v>
@@ -14407,120 +14407,120 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>489</v>
@@ -14528,10 +14528,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>489</v>
@@ -14539,10 +14539,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>489</v>
@@ -14550,10 +14550,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>489</v>
@@ -14561,10 +14561,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>489</v>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>489</v>
@@ -14583,21 +14583,21 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>489</v>
@@ -14605,21 +14605,21 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>489</v>
@@ -14627,164 +14627,164 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>496</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>489</v>
@@ -14792,54 +14792,54 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>489</v>
@@ -14847,10 +14847,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>489</v>
@@ -14858,21 +14858,21 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>489</v>
@@ -14880,98 +14880,98 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>489</v>
@@ -14979,21 +14979,21 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>489</v>
@@ -15001,32 +15001,32 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>489</v>
@@ -15034,73 +15034,73 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>450</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B206" t="s" s="0">
         <v>183</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B207" t="s" s="0">
         <v>180</v>
@@ -15122,54 +15122,54 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>481</v>
@@ -15177,65 +15177,65 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>489</v>
@@ -15243,208 +15243,208 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>449</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>489</v>
@@ -15452,10 +15452,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>489</v>
@@ -15463,10 +15463,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>489</v>
@@ -15474,32 +15474,32 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>489</v>
@@ -15507,10 +15507,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>489</v>
@@ -15518,109 +15518,109 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>500</v>
+        <v>449</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>486</v>
@@ -15628,43 +15628,43 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>489</v>
@@ -15672,87 +15672,87 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>501</v>
+        <v>450</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>489</v>
@@ -15760,10 +15760,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>489</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B267" t="s" s="0">
         <v>66</v>
@@ -15782,10 +15782,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>489</v>
@@ -15793,21 +15793,21 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>489</v>
@@ -15815,21 +15815,21 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>489</v>
@@ -15837,43 +15837,43 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>489</v>
@@ -15881,21 +15881,21 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>449</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>489</v>
@@ -15903,10 +15903,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>489</v>
@@ -15914,21 +15914,21 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>489</v>
@@ -15936,10 +15936,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>489</v>
@@ -15947,10 +15947,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>489</v>
@@ -15958,65 +15958,65 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>489</v>
@@ -16024,10 +16024,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>489</v>
@@ -16035,10 +16035,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>489</v>
@@ -16046,10 +16046,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>489</v>
@@ -16057,21 +16057,21 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>489</v>
@@ -16079,21 +16079,21 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>489</v>
@@ -16101,43 +16101,43 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>489</v>
@@ -16145,13 +16145,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="302">
@@ -16159,7 +16159,7 @@
         <v>161</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>489</v>
@@ -16170,7 +16170,7 @@
         <v>161</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>489</v>
@@ -16181,7 +16181,7 @@
         <v>161</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>489</v>
@@ -16192,7 +16192,7 @@
         <v>161</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>489</v>
@@ -16203,7 +16203,7 @@
         <v>161</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>489</v>
@@ -16214,7 +16214,7 @@
         <v>161</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>489</v>
@@ -16225,7 +16225,7 @@
         <v>161</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>489</v>
@@ -16236,7 +16236,7 @@
         <v>161</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>489</v>
@@ -16247,10 +16247,10 @@
         <v>161</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="311">
@@ -16258,7 +16258,7 @@
         <v>161</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>489</v>
@@ -16269,10 +16269,10 @@
         <v>161</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="313">
@@ -16280,7 +16280,7 @@
         <v>161</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>489</v>
@@ -16291,10 +16291,10 @@
         <v>161</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="315">
@@ -16302,51 +16302,51 @@
         <v>161</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>489</v>
@@ -16354,10 +16354,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>489</v>
@@ -16365,10 +16365,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>489</v>
@@ -16376,10 +16376,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>489</v>
@@ -16387,10 +16387,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>489</v>
@@ -16398,10 +16398,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>489</v>
@@ -16409,10 +16409,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>489</v>
@@ -16420,10 +16420,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>489</v>
@@ -16431,10 +16431,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>489</v>
@@ -16442,10 +16442,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>489</v>
@@ -16453,10 +16453,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>489</v>
@@ -16464,10 +16464,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>489</v>
@@ -16475,10 +16475,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>489</v>
@@ -16486,21 +16486,21 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>489</v>
@@ -16508,21 +16508,21 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>489</v>
@@ -16530,87 +16530,87 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>295</v>
+        <v>13</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>501</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>486</v>
+        <v>450</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>489</v>
@@ -16618,65 +16618,65 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>316</v>
+        <v>53</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>489</v>
@@ -16684,10 +16684,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>489</v>
@@ -16695,10 +16695,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>489</v>
@@ -16706,10 +16706,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>489</v>
@@ -16717,10 +16717,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C353" t="s" s="0">
         <v>489</v>
@@ -16728,10 +16728,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>489</v>
@@ -16739,78 +16739,342 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="B361" t="s" s="0">
+      <c r="B385" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="C361" t="s" s="0">
+      <c r="C385" t="s" s="0">
         <v>486</v>
       </c>
     </row>
@@ -17341,7 +17605,7 @@
         <v>119</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -17355,7 +17619,7 @@
         <v>119</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -17383,7 +17647,7 @@
         <v>119</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -17397,7 +17661,7 @@
         <v>119</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -17411,7 +17675,7 @@
         <v>119</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -17433,13 +17697,13 @@
         <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -17447,13 +17711,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -17461,7 +17725,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>119</v>
@@ -17475,7 +17739,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>119</v>
@@ -17489,13 +17753,13 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -17503,7 +17767,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>119</v>
@@ -17517,13 +17781,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -17587,7 +17851,7 @@
         <v>81</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>119</v>
@@ -17643,7 +17907,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>119</v>
@@ -17685,13 +17949,13 @@
         <v>98</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -17699,13 +17963,13 @@
         <v>98</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -17733,7 +17997,7 @@
         <v>119</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -17747,7 +18011,7 @@
         <v>119</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -17755,13 +18019,13 @@
         <v>110</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -17769,13 +18033,13 @@
         <v>110</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -17803,7 +18067,7 @@
         <v>119</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>162</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -17817,7 +18081,7 @@
         <v>119</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>306</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42">
@@ -17825,13 +18089,13 @@
         <v>63</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -17839,7 +18103,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>119</v>
@@ -17853,7 +18117,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>119</v>
@@ -17867,7 +18131,7 @@
         <v>63</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>119</v>
@@ -17881,7 +18145,7 @@
         <v>63</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>119</v>
@@ -17895,13 +18159,13 @@
         <v>63</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -17909,13 +18173,13 @@
         <v>63</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -17923,13 +18187,13 @@
         <v>63</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -17951,13 +18215,13 @@
         <v>133</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -17979,13 +18243,13 @@
         <v>133</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
@@ -18007,7 +18271,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>119</v>
@@ -18027,7 +18291,7 @@
         <v>93</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>7</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57">
@@ -18035,13 +18299,13 @@
         <v>139</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -18049,13 +18313,13 @@
         <v>139</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59">
@@ -18063,13 +18327,13 @@
         <v>162</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>306</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -18077,13 +18341,13 @@
         <v>162</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>304</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61">
@@ -18091,13 +18355,13 @@
         <v>162</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62">
@@ -18105,7 +18369,7 @@
         <v>162</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>119</v>
@@ -18119,13 +18383,13 @@
         <v>162</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>197</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64">
@@ -18133,7 +18397,7 @@
         <v>170</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>119</v>
@@ -18147,7 +18411,7 @@
         <v>170</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>119</v>
@@ -18175,7 +18439,7 @@
         <v>170</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>119</v>
@@ -18189,7 +18453,7 @@
         <v>170</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>119</v>
@@ -18203,13 +18467,13 @@
         <v>173</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -18217,13 +18481,13 @@
         <v>173</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -18259,7 +18523,7 @@
         <v>178</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>119</v>
@@ -18307,7 +18571,7 @@
         <v>119</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
@@ -18315,7 +18579,7 @@
         <v>333</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>119</v>
@@ -18335,7 +18599,7 @@
         <v>119</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79">
@@ -18374,10 +18638,10 @@
         <v>394</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -18402,10 +18666,10 @@
         <v>396</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -18430,10 +18694,10 @@
         <v>398</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86">
@@ -18441,13 +18705,13 @@
         <v>207</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>37</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -18455,13 +18719,13 @@
         <v>207</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>214</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
@@ -18511,13 +18775,13 @@
         <v>222</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -18525,13 +18789,13 @@
         <v>222</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -18553,7 +18817,7 @@
         <v>222</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>119</v>
@@ -18623,7 +18887,7 @@
         <v>259</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>119</v>
@@ -18651,13 +18915,13 @@
         <v>161</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>14</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102">
@@ -18665,13 +18929,13 @@
         <v>161</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>268</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -18679,13 +18943,13 @@
         <v>161</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -18693,7 +18957,7 @@
         <v>161</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>119</v>
@@ -18707,13 +18971,13 @@
         <v>161</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
@@ -18735,7 +18999,7 @@
         <v>161</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>119</v>
@@ -18749,13 +19013,13 @@
         <v>161</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -18763,13 +19027,13 @@
         <v>161</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -18791,13 +19055,13 @@
         <v>161</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>14</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112">
@@ -18805,13 +19069,13 @@
         <v>161</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
@@ -18819,13 +19083,13 @@
         <v>161</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>268</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -18833,13 +19097,13 @@
         <v>161</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -18875,13 +19139,13 @@
         <v>168</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -18889,7 +19153,7 @@
         <v>168</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>119</v>
@@ -18903,13 +19167,13 @@
         <v>168</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -18917,13 +19181,13 @@
         <v>168</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -18993,7 +19257,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>419</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -19001,7 +19265,7 @@
         <v>309</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
@@ -19015,7 +19279,7 @@
         <v>309</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>6</v>
@@ -19029,7 +19293,7 @@
         <v>309</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
@@ -19043,7 +19307,7 @@
         <v>309</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
@@ -19057,7 +19321,7 @@
         <v>309</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
@@ -19071,7 +19335,7 @@
         <v>309</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
@@ -19085,7 +19349,7 @@
         <v>309</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
@@ -19099,7 +19363,7 @@
         <v>309</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
@@ -19113,7 +19377,7 @@
         <v>309</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
@@ -19127,13 +19391,13 @@
         <v>309</v>
       </c>
       <c r="B135" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s" s="0">
         <v>429</v>
-      </c>
-      <c r="C135" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -19217,7 +19481,7 @@
         <v>119</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>435</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -19225,13 +19489,13 @@
         <v>314</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>119</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>14</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143">
@@ -26035,7 +26299,7 @@
         <v>207</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>449</v>
@@ -26052,7 +26316,7 @@
         <v>207</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>449</v>
@@ -26069,7 +26333,7 @@
         <v>207</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>449</v>
